--- a/analysis/edcr (validation)/out/top_f1/magnesium_shift_new_20_results.xlsx
+++ b/analysis/edcr (validation)/out/top_f1/magnesium_shift_new_20_results.xlsx
@@ -573,31 +573,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="M2">
-        <v>0.9</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="N2">
-        <v>0.6428571428571429</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="O2">
-        <v>0.07142857142857145</v>
+        <v>0.1020408163265307</v>
       </c>
       <c r="P2">
-        <v>0.3</v>
+        <v>0.1323943661971831</v>
       </c>
       <c r="Q2">
-        <v>0.1428571428571429</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="R2">
-        <v>0.1666666666666667</v>
+        <v>0.2380952380952382</v>
       </c>
       <c r="S2">
-        <v>0.5000000000000001</v>
+        <v>0.2206572769953052</v>
       </c>
       <c r="T2">
-        <v>0.2857142857142858</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="U2" t="s">
         <v>31</v>
@@ -638,31 +638,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="M3">
-        <v>0.9</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="N3">
-        <v>0.6428571428571429</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="O3">
-        <v>0.07142857142857145</v>
+        <v>0.1020408163265307</v>
       </c>
       <c r="P3">
-        <v>0.3</v>
+        <v>0.1323943661971831</v>
       </c>
       <c r="Q3">
-        <v>0.1428571428571429</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="R3">
-        <v>0.1666666666666667</v>
+        <v>0.2380952380952382</v>
       </c>
       <c r="S3">
-        <v>0.5000000000000001</v>
+        <v>0.2206572769953052</v>
       </c>
       <c r="T3">
-        <v>0.2857142857142858</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="U3" t="s">
         <v>31</v>
@@ -703,31 +703,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L4">
-        <v>0.5714285714285714</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="M4">
-        <v>0.8</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="N4">
-        <v>0.6666666666666666</v>
+        <v>0.5838509316770187</v>
       </c>
       <c r="O4">
-        <v>0.1428571428571428</v>
+        <v>0.09365079365079371</v>
       </c>
       <c r="P4">
-        <v>0.2000000000000001</v>
+        <v>0.06197183098591552</v>
       </c>
       <c r="Q4">
-        <v>0.1666666666666666</v>
+        <v>0.08385093167701874</v>
       </c>
       <c r="R4">
-        <v>0.3333333333333333</v>
+        <v>0.2185185185185187</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333335</v>
+        <v>0.1032863849765259</v>
       </c>
       <c r="T4">
-        <v>0.3333333333333333</v>
+        <v>0.1677018633540375</v>
       </c>
       <c r="U4" t="s">
         <v>31</v>
@@ -768,31 +768,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L5">
-        <v>0.5714285714285714</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="M5">
-        <v>0.8</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="N5">
-        <v>0.6666666666666666</v>
+        <v>0.5838509316770187</v>
       </c>
       <c r="O5">
-        <v>0.1428571428571428</v>
+        <v>0.09365079365079371</v>
       </c>
       <c r="P5">
-        <v>0.2000000000000001</v>
+        <v>0.06197183098591552</v>
       </c>
       <c r="Q5">
-        <v>0.1666666666666666</v>
+        <v>0.08385093167701874</v>
       </c>
       <c r="R5">
-        <v>0.3333333333333333</v>
+        <v>0.2185185185185187</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333335</v>
+        <v>0.1032863849765259</v>
       </c>
       <c r="T5">
-        <v>0.3333333333333333</v>
+        <v>0.1677018633540375</v>
       </c>
       <c r="U5" t="s">
         <v>31</v>
@@ -833,31 +833,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L6">
-        <v>0.5714285714285714</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="M6">
-        <v>0.8</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="N6">
-        <v>0.6666666666666666</v>
+        <v>0.5838509316770187</v>
       </c>
       <c r="O6">
-        <v>0.1428571428571428</v>
+        <v>0.09365079365079371</v>
       </c>
       <c r="P6">
-        <v>0.2000000000000001</v>
+        <v>0.06197183098591552</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666666</v>
+        <v>0.08385093167701874</v>
       </c>
       <c r="R6">
-        <v>0.3333333333333333</v>
+        <v>0.2185185185185187</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333335</v>
+        <v>0.1032863849765259</v>
       </c>
       <c r="T6">
-        <v>0.3333333333333333</v>
+        <v>0.1677018633540375</v>
       </c>
       <c r="U6" t="s">
         <v>31</v>
@@ -895,31 +895,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L7">
-        <v>0.5862068965517241</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.85</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N7">
-        <v>0.6938775510204082</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O7">
-        <v>0.1576354679802955</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="P7">
-        <v>0.25</v>
+        <v>0.1887323943661972</v>
       </c>
       <c r="Q7">
-        <v>0.1938775510204082</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="R7">
-        <v>0.3678160919540229</v>
+        <v>0.2444444444444445</v>
       </c>
       <c r="S7">
-        <v>0.4166666666666667</v>
+        <v>0.3145539906103286</v>
       </c>
       <c r="T7">
-        <v>0.3877551020408163</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="U7" t="s">
         <v>31</v>
@@ -960,31 +960,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L8">
-        <v>0.5862068965517241</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.85</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N8">
-        <v>0.6938775510204082</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O8">
-        <v>0.1576354679802955</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="P8">
-        <v>0.25</v>
+        <v>0.1887323943661972</v>
       </c>
       <c r="Q8">
-        <v>0.1938775510204082</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="R8">
-        <v>0.3678160919540229</v>
+        <v>0.2444444444444445</v>
       </c>
       <c r="S8">
-        <v>0.4166666666666667</v>
+        <v>0.3145539906103286</v>
       </c>
       <c r="T8">
-        <v>0.3877551020408163</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="U8" t="s">
         <v>31</v>
@@ -1025,31 +1025,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L9">
-        <v>0.5714285714285714</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="M9">
-        <v>0.8</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="N9">
-        <v>0.6666666666666666</v>
+        <v>0.5838509316770187</v>
       </c>
       <c r="O9">
-        <v>0.1428571428571428</v>
+        <v>0.09365079365079371</v>
       </c>
       <c r="P9">
-        <v>0.2000000000000001</v>
+        <v>0.06197183098591552</v>
       </c>
       <c r="Q9">
-        <v>0.1666666666666666</v>
+        <v>0.08385093167701874</v>
       </c>
       <c r="R9">
-        <v>0.3333333333333333</v>
+        <v>0.2185185185185187</v>
       </c>
       <c r="S9">
-        <v>0.3333333333333335</v>
+        <v>0.1032863849765259</v>
       </c>
       <c r="T9">
-        <v>0.3333333333333333</v>
+        <v>0.1677018633540375</v>
       </c>
       <c r="U9" t="s">
         <v>31</v>
@@ -1090,31 +1090,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L10">
-        <v>0.5714285714285714</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="M10">
-        <v>0.8</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="N10">
-        <v>0.6666666666666666</v>
+        <v>0.5838509316770187</v>
       </c>
       <c r="O10">
-        <v>0.1428571428571428</v>
+        <v>0.09365079365079371</v>
       </c>
       <c r="P10">
-        <v>0.2000000000000001</v>
+        <v>0.06197183098591552</v>
       </c>
       <c r="Q10">
-        <v>0.1666666666666666</v>
+        <v>0.08385093167701874</v>
       </c>
       <c r="R10">
-        <v>0.3333333333333333</v>
+        <v>0.2185185185185187</v>
       </c>
       <c r="S10">
-        <v>0.3333333333333335</v>
+        <v>0.1032863849765259</v>
       </c>
       <c r="T10">
-        <v>0.3333333333333333</v>
+        <v>0.1677018633540375</v>
       </c>
       <c r="U10" t="s">
         <v>31</v>
@@ -1155,31 +1155,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L11">
-        <v>0.5714285714285714</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="M11">
-        <v>0.8</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="N11">
-        <v>0.6666666666666666</v>
+        <v>0.5838509316770187</v>
       </c>
       <c r="O11">
-        <v>0.1428571428571428</v>
+        <v>0.09365079365079371</v>
       </c>
       <c r="P11">
-        <v>0.2000000000000001</v>
+        <v>0.06197183098591552</v>
       </c>
       <c r="Q11">
-        <v>0.1666666666666666</v>
+        <v>0.08385093167701874</v>
       </c>
       <c r="R11">
-        <v>0.3333333333333333</v>
+        <v>0.2185185185185187</v>
       </c>
       <c r="S11">
-        <v>0.3333333333333335</v>
+        <v>0.1032863849765259</v>
       </c>
       <c r="T11">
-        <v>0.3333333333333333</v>
+        <v>0.1677018633540375</v>
       </c>
       <c r="U11" t="s">
         <v>31</v>
@@ -1217,31 +1217,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L12">
-        <v>0.3076923076923077</v>
+        <v>0.1977715877437326</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>0.4705882352941176</v>
+        <v>0.3302325581395349</v>
       </c>
       <c r="O12">
-        <v>0.09935897435897437</v>
+        <v>-0.01056174558960074</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.1257606490872211</v>
+        <v>-0.01459502806736168</v>
       </c>
       <c r="R12">
-        <v>0.4769230769230769</v>
+        <v>-0.05069637883008355</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0.364705882352941</v>
+        <v>-0.04232558139534887</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1279,31 +1279,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L13">
-        <v>0.3076923076923077</v>
+        <v>0.1977715877437326</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.4705882352941176</v>
+        <v>0.3302325581395349</v>
       </c>
       <c r="O13">
-        <v>0.09935897435897437</v>
+        <v>-0.01056174558960074</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.1257606490872211</v>
+        <v>-0.01459502806736168</v>
       </c>
       <c r="R13">
-        <v>0.4769230769230769</v>
+        <v>-0.05069637883008355</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0.364705882352941</v>
+        <v>-0.04232558139534887</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1341,31 +1341,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L14">
-        <v>0.3015873015873016</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="M14">
-        <v>0.95</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="N14">
-        <v>0.4578313253012048</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="O14">
-        <v>0.09325396825396823</v>
+        <v>-0.01280260707635011</v>
       </c>
       <c r="P14">
-        <v>-0.05000000000000004</v>
+        <v>-0.0140845070422535</v>
       </c>
       <c r="Q14">
-        <v>0.1130037390943082</v>
+        <v>-0.01848725986657024</v>
       </c>
       <c r="R14">
-        <v>0.4476190476190475</v>
+        <v>-0.06145251396648055</v>
       </c>
       <c r="S14">
-        <v>-0.05000000000000004</v>
+        <v>-0.0140845070422535</v>
       </c>
       <c r="T14">
-        <v>0.3277108433734938</v>
+        <v>-0.05361305361305368</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1403,31 +1403,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L15">
-        <v>0.3015873015873016</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="M15">
-        <v>0.95</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="N15">
-        <v>0.4578313253012048</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="O15">
-        <v>0.09325396825396823</v>
+        <v>-0.01280260707635011</v>
       </c>
       <c r="P15">
-        <v>-0.05000000000000004</v>
+        <v>-0.0140845070422535</v>
       </c>
       <c r="Q15">
-        <v>0.1130037390943082</v>
+        <v>-0.01848725986657024</v>
       </c>
       <c r="R15">
-        <v>0.4476190476190475</v>
+        <v>-0.06145251396648055</v>
       </c>
       <c r="S15">
-        <v>-0.05000000000000004</v>
+        <v>-0.0140845070422535</v>
       </c>
       <c r="T15">
-        <v>0.3277108433734938</v>
+        <v>-0.05361305361305368</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1465,31 +1465,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L16">
-        <v>0.3015873015873016</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="M16">
-        <v>0.95</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="N16">
-        <v>0.4578313253012048</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="O16">
-        <v>0.09325396825396823</v>
+        <v>-0.01280260707635011</v>
       </c>
       <c r="P16">
-        <v>-0.05000000000000004</v>
+        <v>-0.0140845070422535</v>
       </c>
       <c r="Q16">
-        <v>0.1130037390943082</v>
+        <v>-0.01848725986657024</v>
       </c>
       <c r="R16">
-        <v>0.4476190476190475</v>
+        <v>-0.06145251396648055</v>
       </c>
       <c r="S16">
-        <v>-0.05000000000000004</v>
+        <v>-0.0140845070422535</v>
       </c>
       <c r="T16">
-        <v>0.3277108433734938</v>
+        <v>-0.05361305361305368</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1524,31 +1524,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L17">
-        <v>0.3076923076923077</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17">
-        <v>0.4705882352941176</v>
+        <v>0.3294663573085847</v>
       </c>
       <c r="O17">
-        <v>0.09935897435897437</v>
+        <v>-0.01111111111111113</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.1257606490872211</v>
+        <v>-0.01536122889831187</v>
       </c>
       <c r="R17">
-        <v>0.4769230769230769</v>
+        <v>-0.05333333333333341</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0.364705882352941</v>
+        <v>-0.04454756380510443</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1586,31 +1586,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L18">
-        <v>0.3076923076923077</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18">
-        <v>0.4705882352941176</v>
+        <v>0.3294663573085847</v>
       </c>
       <c r="O18">
-        <v>0.09935897435897437</v>
+        <v>-0.01111111111111113</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.1257606490872211</v>
+        <v>-0.01536122889831187</v>
       </c>
       <c r="R18">
-        <v>0.4769230769230769</v>
+        <v>-0.05333333333333341</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0.364705882352941</v>
+        <v>-0.04454756380510443</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1648,31 +1648,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L19">
-        <v>0.3015873015873016</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="M19">
-        <v>0.95</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="N19">
-        <v>0.4578313253012048</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="O19">
-        <v>0.09325396825396823</v>
+        <v>-0.01280260707635011</v>
       </c>
       <c r="P19">
-        <v>-0.05000000000000004</v>
+        <v>-0.0140845070422535</v>
       </c>
       <c r="Q19">
-        <v>0.1130037390943082</v>
+        <v>-0.01848725986657024</v>
       </c>
       <c r="R19">
-        <v>0.4476190476190475</v>
+        <v>-0.06145251396648055</v>
       </c>
       <c r="S19">
-        <v>-0.05000000000000004</v>
+        <v>-0.0140845070422535</v>
       </c>
       <c r="T19">
-        <v>0.3277108433734938</v>
+        <v>-0.05361305361305368</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1710,31 +1710,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L20">
-        <v>0.3015873015873016</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="M20">
-        <v>0.95</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="N20">
-        <v>0.4578313253012048</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="O20">
-        <v>0.09325396825396823</v>
+        <v>-0.01280260707635011</v>
       </c>
       <c r="P20">
-        <v>-0.05000000000000004</v>
+        <v>-0.0140845070422535</v>
       </c>
       <c r="Q20">
-        <v>0.1130037390943082</v>
+        <v>-0.01848725986657024</v>
       </c>
       <c r="R20">
-        <v>0.4476190476190475</v>
+        <v>-0.06145251396648055</v>
       </c>
       <c r="S20">
-        <v>-0.05000000000000004</v>
+        <v>-0.0140845070422535</v>
       </c>
       <c r="T20">
-        <v>0.3277108433734938</v>
+        <v>-0.05361305361305368</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1772,31 +1772,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L21">
-        <v>0.3015873015873016</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="M21">
-        <v>0.95</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="N21">
-        <v>0.4578313253012048</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="O21">
-        <v>0.09325396825396823</v>
+        <v>-0.01280260707635011</v>
       </c>
       <c r="P21">
-        <v>-0.05000000000000004</v>
+        <v>-0.0140845070422535</v>
       </c>
       <c r="Q21">
-        <v>0.1130037390943082</v>
+        <v>-0.01848725986657024</v>
       </c>
       <c r="R21">
-        <v>0.4476190476190475</v>
+        <v>-0.06145251396648055</v>
       </c>
       <c r="S21">
-        <v>-0.05000000000000004</v>
+        <v>-0.0140845070422535</v>
       </c>
       <c r="T21">
-        <v>0.3277108433734938</v>
+        <v>-0.05361305361305368</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1831,31 +1831,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M22">
-        <v>0.05</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="N22">
-        <v>0.09523809523809523</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>-0.1428571428571429</v>
       </c>
       <c r="P22">
-        <v>-0.2166666666666667</v>
+        <v>-0.09765258215962441</v>
       </c>
       <c r="Q22">
-        <v>-0.3258145363408522</v>
+        <v>-0.1386996904024768</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>-0.1428571428571429</v>
       </c>
       <c r="S22">
-        <v>-0.8125</v>
+        <v>-0.3661971830985916</v>
       </c>
       <c r="T22">
-        <v>-0.7738095238095238</v>
+        <v>-0.3294117647058824</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1893,31 +1893,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M23">
-        <v>0.05</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="N23">
-        <v>0.09523809523809523</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>-0.1428571428571429</v>
       </c>
       <c r="P23">
-        <v>-0.2166666666666667</v>
+        <v>-0.09765258215962441</v>
       </c>
       <c r="Q23">
-        <v>-0.3258145363408522</v>
+        <v>-0.1386996904024768</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>-0.1428571428571429</v>
       </c>
       <c r="S23">
-        <v>-0.8125</v>
+        <v>-0.3661971830985916</v>
       </c>
       <c r="T23">
-        <v>-0.7738095238095238</v>
+        <v>-0.3294117647058824</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1955,31 +1955,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="M24">
-        <v>0.05</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="N24">
-        <v>0.09523809523809523</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>-0.1176470588235294</v>
       </c>
       <c r="P24">
-        <v>-0.2166666666666667</v>
+        <v>-0.05539906103286385</v>
       </c>
       <c r="Q24">
-        <v>-0.3258145363408522</v>
+        <v>-0.08014354066985646</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>-0.1176470588235294</v>
       </c>
       <c r="S24">
-        <v>-0.8125</v>
+        <v>-0.2077464788732394</v>
       </c>
       <c r="T24">
-        <v>-0.7738095238095238</v>
+        <v>-0.1903409090909091</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2017,31 +2017,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="M25">
-        <v>0.05</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="N25">
-        <v>0.09523809523809523</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>-0.1176470588235294</v>
       </c>
       <c r="P25">
-        <v>-0.2166666666666667</v>
+        <v>-0.05539906103286385</v>
       </c>
       <c r="Q25">
-        <v>-0.3258145363408522</v>
+        <v>-0.08014354066985646</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>-0.1176470588235294</v>
       </c>
       <c r="S25">
-        <v>-0.8125</v>
+        <v>-0.2077464788732394</v>
       </c>
       <c r="T25">
-        <v>-0.7738095238095238</v>
+        <v>-0.1903409090909091</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2079,31 +2079,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="M26">
-        <v>0.05</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="N26">
-        <v>0.09523809523809523</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>-0.1176470588235294</v>
       </c>
       <c r="P26">
-        <v>-0.2166666666666667</v>
+        <v>-0.05539906103286385</v>
       </c>
       <c r="Q26">
-        <v>-0.3258145363408522</v>
+        <v>-0.08014354066985646</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>-0.1176470588235294</v>
       </c>
       <c r="S26">
-        <v>-0.8125</v>
+        <v>-0.2077464788732394</v>
       </c>
       <c r="T26">
-        <v>-0.7738095238095238</v>
+        <v>-0.1903409090909091</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2138,31 +2138,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M27">
-        <v>0.05</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="N27">
-        <v>0.09523809523809523</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>-0.1428571428571429</v>
       </c>
       <c r="P27">
-        <v>-0.2166666666666667</v>
+        <v>-0.09765258215962441</v>
       </c>
       <c r="Q27">
-        <v>-0.3258145363408522</v>
+        <v>-0.1386996904024768</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>-0.1428571428571429</v>
       </c>
       <c r="S27">
-        <v>-0.8125</v>
+        <v>-0.3661971830985916</v>
       </c>
       <c r="T27">
-        <v>-0.7738095238095238</v>
+        <v>-0.3294117647058824</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2200,31 +2200,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M28">
-        <v>0.05</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="N28">
-        <v>0.09523809523809523</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>-0.1428571428571429</v>
       </c>
       <c r="P28">
-        <v>-0.2166666666666667</v>
+        <v>-0.09765258215962441</v>
       </c>
       <c r="Q28">
-        <v>-0.3258145363408522</v>
+        <v>-0.1386996904024768</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>-0.1428571428571429</v>
       </c>
       <c r="S28">
-        <v>-0.8125</v>
+        <v>-0.3661971830985916</v>
       </c>
       <c r="T28">
-        <v>-0.7738095238095238</v>
+        <v>-0.3294117647058824</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2262,31 +2262,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M29">
-        <v>0.05</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="N29">
-        <v>0.09523809523809523</v>
+        <v>0.3595505617977529</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>-0.1111111111111112</v>
       </c>
       <c r="P29">
-        <v>-0.2166666666666667</v>
+        <v>-0.04131455399061032</v>
       </c>
       <c r="Q29">
-        <v>-0.3258145363408522</v>
+        <v>-0.06150206978119455</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>-0.1111111111111112</v>
       </c>
       <c r="S29">
-        <v>-0.8125</v>
+        <v>-0.1549295774647887</v>
       </c>
       <c r="T29">
-        <v>-0.7738095238095238</v>
+        <v>-0.146067415730337</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2324,31 +2324,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M30">
-        <v>0.05</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="N30">
-        <v>0.09523809523809523</v>
+        <v>0.3595505617977529</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>-0.1111111111111112</v>
       </c>
       <c r="P30">
-        <v>-0.2166666666666667</v>
+        <v>-0.04131455399061032</v>
       </c>
       <c r="Q30">
-        <v>-0.3258145363408522</v>
+        <v>-0.06150206978119455</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>-0.1111111111111112</v>
       </c>
       <c r="S30">
-        <v>-0.8125</v>
+        <v>-0.1549295774647887</v>
       </c>
       <c r="T30">
-        <v>-0.7738095238095238</v>
+        <v>-0.146067415730337</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2386,31 +2386,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M31">
-        <v>0.05</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="N31">
-        <v>0.09523809523809523</v>
+        <v>0.3595505617977529</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>-0.1111111111111112</v>
       </c>
       <c r="P31">
-        <v>-0.2166666666666667</v>
+        <v>-0.04131455399061032</v>
       </c>
       <c r="Q31">
-        <v>-0.3258145363408522</v>
+        <v>-0.06150206978119455</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>-0.1111111111111112</v>
       </c>
       <c r="S31">
-        <v>-0.8125</v>
+        <v>-0.1549295774647887</v>
       </c>
       <c r="T31">
-        <v>-0.7738095238095238</v>
+        <v>-0.146067415730337</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2445,31 +2445,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="M32">
-        <v>0.1</v>
+        <v>0.352112676056338</v>
       </c>
       <c r="N32">
-        <v>0.1739130434782609</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="O32">
-        <v>-0.3333333333333334</v>
+        <v>-0.2647058823529411</v>
       </c>
       <c r="P32">
-        <v>-0.1</v>
+        <v>0.152112676056338</v>
       </c>
       <c r="Q32">
-        <v>-0.1594202898550725</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R32">
-        <v>-0.3333333333333334</v>
+        <v>-0.2647058823529411</v>
       </c>
       <c r="S32">
-        <v>-0.5</v>
+        <v>0.7605633802816899</v>
       </c>
       <c r="T32">
-        <v>-0.4782608695652174</v>
+        <v>0.4285714285714283</v>
       </c>
       <c r="U32" t="s">
         <v>32</v>
@@ -2510,31 +2510,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L33">
-        <v>0.5714285714285714</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="M33">
-        <v>0.2</v>
+        <v>0.352112676056338</v>
       </c>
       <c r="N33">
-        <v>0.2962962962962963</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="O33">
-        <v>-0.4285714285714286</v>
+        <v>-0.2647058823529411</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>0.152112676056338</v>
       </c>
       <c r="Q33">
-        <v>-0.03703703703703703</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R33">
-        <v>-0.4285714285714286</v>
+        <v>-0.2647058823529411</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>0.7605633802816899</v>
       </c>
       <c r="T33">
-        <v>-0.1111111111111111</v>
+        <v>0.4285714285714283</v>
       </c>
       <c r="U33" t="s">
         <v>32</v>
@@ -2575,31 +2575,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>0.4123711340206186</v>
       </c>
       <c r="O34">
-        <v>-1</v>
+        <v>-0.2307692307692307</v>
       </c>
       <c r="P34">
-        <v>-0.2</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="Q34">
-        <v>-0.3333333333333334</v>
+        <v>0.07903780068728522</v>
       </c>
       <c r="R34">
-        <v>-1</v>
+        <v>-0.2307692307692307</v>
       </c>
       <c r="S34">
-        <v>-1</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="T34">
-        <v>-1</v>
+        <v>0.2371134020618556</v>
       </c>
       <c r="U34" t="s">
         <v>32</v>
@@ -2640,31 +2640,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>0.4123711340206186</v>
       </c>
       <c r="O35">
-        <v>-1</v>
+        <v>-0.2307692307692307</v>
       </c>
       <c r="P35">
-        <v>-0.2</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="Q35">
-        <v>-0.3333333333333334</v>
+        <v>0.07903780068728522</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>-0.2307692307692307</v>
       </c>
       <c r="S35">
-        <v>-1</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="T35">
-        <v>-1</v>
+        <v>0.2371134020618556</v>
       </c>
       <c r="U35" t="s">
         <v>32</v>
@@ -2705,31 +2705,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>0.4123711340206186</v>
       </c>
       <c r="O36">
-        <v>-1</v>
+        <v>-0.2307692307692307</v>
       </c>
       <c r="P36">
-        <v>-0.2</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="Q36">
-        <v>-0.3333333333333334</v>
+        <v>0.07903780068728522</v>
       </c>
       <c r="R36">
-        <v>-1</v>
+        <v>-0.2307692307692307</v>
       </c>
       <c r="S36">
-        <v>-1</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="T36">
-        <v>-1</v>
+        <v>0.2371134020618556</v>
       </c>
       <c r="U36" t="s">
         <v>32</v>
@@ -2767,31 +2767,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>0.4123711340206186</v>
       </c>
       <c r="O37">
-        <v>-1</v>
+        <v>-0.2307692307692307</v>
       </c>
       <c r="P37">
-        <v>-0.2</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="Q37">
-        <v>-0.3333333333333334</v>
+        <v>0.07903780068728522</v>
       </c>
       <c r="R37">
-        <v>-1</v>
+        <v>-0.2307692307692307</v>
       </c>
       <c r="S37">
-        <v>-1</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="T37">
-        <v>-1</v>
+        <v>0.2371134020618556</v>
       </c>
       <c r="U37" t="s">
         <v>32</v>
@@ -2832,31 +2832,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="O38">
-        <v>-1</v>
+        <v>-0.2</v>
       </c>
       <c r="P38">
+        <v>-0.08732394366197184</v>
+      </c>
+      <c r="Q38">
+        <v>-0.1358024691358025</v>
+      </c>
+      <c r="R38">
         <v>-0.2</v>
       </c>
-      <c r="Q38">
-        <v>-0.3333333333333334</v>
-      </c>
-      <c r="R38">
-        <v>-1</v>
-      </c>
       <c r="S38">
-        <v>-1</v>
+        <v>-0.4366197183098592</v>
       </c>
       <c r="T38">
-        <v>-1</v>
+        <v>-0.4074074074074074</v>
       </c>
       <c r="U38" t="s">
         <v>32</v>
@@ -2897,31 +2897,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.4123711340206186</v>
       </c>
       <c r="O39">
-        <v>-1</v>
+        <v>-0.2307692307692307</v>
       </c>
       <c r="P39">
-        <v>-0.2</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="Q39">
-        <v>-0.3333333333333334</v>
+        <v>0.07903780068728522</v>
       </c>
       <c r="R39">
-        <v>-1</v>
+        <v>-0.2307692307692307</v>
       </c>
       <c r="S39">
-        <v>-1</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="T39">
-        <v>-1</v>
+        <v>0.2371134020618556</v>
       </c>
       <c r="U39" t="s">
         <v>32</v>
@@ -2962,31 +2962,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>0.4123711340206186</v>
       </c>
       <c r="O40">
-        <v>-1</v>
+        <v>-0.2307692307692307</v>
       </c>
       <c r="P40">
-        <v>-0.2</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="Q40">
-        <v>-0.3333333333333334</v>
+        <v>0.07903780068728522</v>
       </c>
       <c r="R40">
-        <v>-1</v>
+        <v>-0.2307692307692307</v>
       </c>
       <c r="S40">
-        <v>-1</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="T40">
-        <v>-1</v>
+        <v>0.2371134020618556</v>
       </c>
       <c r="U40" t="s">
         <v>32</v>
@@ -3027,31 +3027,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>0.4123711340206186</v>
       </c>
       <c r="O41">
-        <v>-1</v>
+        <v>-0.2307692307692307</v>
       </c>
       <c r="P41">
-        <v>-0.2</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="Q41">
-        <v>-0.3333333333333334</v>
+        <v>0.07903780068728522</v>
       </c>
       <c r="R41">
-        <v>-1</v>
+        <v>-0.2307692307692307</v>
       </c>
       <c r="S41">
-        <v>-1</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="T41">
-        <v>-1</v>
+        <v>0.2371134020618556</v>
       </c>
       <c r="U41" t="s">
         <v>32</v>

--- a/analysis/edcr (validation)/out/top_f1/magnesium_shift_new_20_results.xlsx
+++ b/analysis/edcr (validation)/out/top_f1/magnesium_shift_new_20_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="35">
   <si>
     <t>Model</t>
   </si>
@@ -109,7 +109,13 @@
     <t>detection_correction</t>
   </si>
   <si>
-    <t>Best Precision, Best Recall, Best F1</t>
+    <t>Best F1</t>
+  </si>
+  <si>
+    <t>Best Recall</t>
+  </si>
+  <si>
+    <t>Best Precision</t>
   </si>
   <si>
     <t>Worst F1</t>
@@ -561,13 +567,13 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H2">
-        <v>0.4285714285714285</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="J2">
-        <v>0.5</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="K2">
         <v>0.1924119241192412</v>
@@ -582,22 +588,22 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="O2">
-        <v>0.1020408163265307</v>
+        <v>0.01375831231368951</v>
       </c>
       <c r="P2">
-        <v>0.1323943661971831</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="Q2">
-        <v>0.1153846153846154</v>
+        <v>0.04038461538461535</v>
       </c>
       <c r="R2">
-        <v>0.2380952380952382</v>
+        <v>0.02661934338952971</v>
       </c>
       <c r="S2">
-        <v>0.2206572769953052</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="T2">
-        <v>0.2307692307692308</v>
+        <v>0.07023411371237452</v>
       </c>
       <c r="U2" t="s">
         <v>31</v>
@@ -626,13 +632,13 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H3">
-        <v>0.4285714285714285</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="I3">
-        <v>0.6</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="K3">
         <v>0.1924119241192412</v>
@@ -647,22 +653,22 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="O3">
-        <v>0.1020408163265307</v>
+        <v>0.01375831231368951</v>
       </c>
       <c r="P3">
-        <v>0.1323943661971831</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="Q3">
-        <v>0.1153846153846154</v>
+        <v>0.04038461538461535</v>
       </c>
       <c r="R3">
-        <v>0.2380952380952382</v>
+        <v>0.02661934338952971</v>
       </c>
       <c r="S3">
-        <v>0.2206572769953052</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="T3">
-        <v>0.2307692307692308</v>
+        <v>0.07023411371237452</v>
       </c>
       <c r="U3" t="s">
         <v>31</v>
@@ -691,13 +697,13 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H4">
-        <v>0.4285714285714285</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="I4">
-        <v>0.6</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="K4">
         <v>0.1924119241192412</v>
@@ -712,22 +718,22 @@
         <v>0.5838509316770187</v>
       </c>
       <c r="O4">
-        <v>0.09365079365079371</v>
+        <v>0.00536828963795255</v>
       </c>
       <c r="P4">
-        <v>0.06197183098591552</v>
+        <v>0.0140845070422535</v>
       </c>
       <c r="Q4">
-        <v>0.08385093167701874</v>
+        <v>0.00885093167701867</v>
       </c>
       <c r="R4">
-        <v>0.2185185185185187</v>
+        <v>0.01038647342995167</v>
       </c>
       <c r="S4">
-        <v>0.1032863849765259</v>
+        <v>0.02173913043478258</v>
       </c>
       <c r="T4">
-        <v>0.1677018633540375</v>
+        <v>0.01539292465568464</v>
       </c>
       <c r="U4" t="s">
         <v>31</v>
@@ -756,13 +762,13 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H5">
-        <v>0.4285714285714285</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="I5">
-        <v>0.6</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="K5">
         <v>0.1924119241192412</v>
@@ -777,22 +783,22 @@
         <v>0.5838509316770187</v>
       </c>
       <c r="O5">
-        <v>0.09365079365079371</v>
+        <v>0.00536828963795255</v>
       </c>
       <c r="P5">
-        <v>0.06197183098591552</v>
+        <v>0.0140845070422535</v>
       </c>
       <c r="Q5">
-        <v>0.08385093167701874</v>
+        <v>0.00885093167701867</v>
       </c>
       <c r="R5">
-        <v>0.2185185185185187</v>
+        <v>0.01038647342995167</v>
       </c>
       <c r="S5">
-        <v>0.1032863849765259</v>
+        <v>0.02173913043478258</v>
       </c>
       <c r="T5">
-        <v>0.1677018633540375</v>
+        <v>0.01539292465568464</v>
       </c>
       <c r="U5" t="s">
         <v>31</v>
@@ -821,13 +827,13 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H6">
-        <v>0.4285714285714285</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="I6">
-        <v>0.6</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="J6">
-        <v>0.5</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="K6">
         <v>0.1924119241192412</v>
@@ -842,22 +848,22 @@
         <v>0.5838509316770187</v>
       </c>
       <c r="O6">
-        <v>0.09365079365079371</v>
+        <v>0.00536828963795255</v>
       </c>
       <c r="P6">
-        <v>0.06197183098591552</v>
+        <v>0.0140845070422535</v>
       </c>
       <c r="Q6">
-        <v>0.08385093167701874</v>
+        <v>0.00885093167701867</v>
       </c>
       <c r="R6">
-        <v>0.2185185185185187</v>
+        <v>0.01038647342995167</v>
       </c>
       <c r="S6">
-        <v>0.1032863849765259</v>
+        <v>0.02173913043478258</v>
       </c>
       <c r="T6">
-        <v>0.1677018633540375</v>
+        <v>0.01539292465568464</v>
       </c>
       <c r="U6" t="s">
         <v>31</v>
@@ -883,13 +889,13 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H7">
-        <v>0.4285714285714285</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="I7">
-        <v>0.6</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="J7">
-        <v>0.5</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="K7">
         <v>0.1924119241192412</v>
@@ -904,22 +910,22 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="O7">
-        <v>0.1047619047619048</v>
+        <v>0.01647940074906362</v>
       </c>
       <c r="P7">
-        <v>0.1887323943661972</v>
+        <v>0.1408450704225351</v>
       </c>
       <c r="Q7">
-        <v>0.1363636363636364</v>
+        <v>0.06136363636363629</v>
       </c>
       <c r="R7">
-        <v>0.2444444444444445</v>
+        <v>0.03188405797101439</v>
       </c>
       <c r="S7">
-        <v>0.3145539906103286</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="T7">
-        <v>0.2727272727272727</v>
+        <v>0.1067193675889327</v>
       </c>
       <c r="U7" t="s">
         <v>31</v>
@@ -948,13 +954,13 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H8">
-        <v>0.4285714285714285</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="I8">
-        <v>0.6</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="J8">
-        <v>0.5</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="K8">
         <v>0.1924119241192412</v>
@@ -969,22 +975,22 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="O8">
-        <v>0.1047619047619048</v>
+        <v>0.01647940074906362</v>
       </c>
       <c r="P8">
-        <v>0.1887323943661972</v>
+        <v>0.1408450704225351</v>
       </c>
       <c r="Q8">
-        <v>0.1363636363636364</v>
+        <v>0.06136363636363629</v>
       </c>
       <c r="R8">
-        <v>0.2444444444444445</v>
+        <v>0.03188405797101439</v>
       </c>
       <c r="S8">
-        <v>0.3145539906103286</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="T8">
-        <v>0.2727272727272727</v>
+        <v>0.1067193675889327</v>
       </c>
       <c r="U8" t="s">
         <v>31</v>
@@ -1013,13 +1019,13 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H9">
-        <v>0.4285714285714285</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="I9">
-        <v>0.6</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="J9">
-        <v>0.5</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="K9">
         <v>0.1924119241192412</v>
@@ -1034,22 +1040,22 @@
         <v>0.5838509316770187</v>
       </c>
       <c r="O9">
-        <v>0.09365079365079371</v>
+        <v>0.00536828963795255</v>
       </c>
       <c r="P9">
-        <v>0.06197183098591552</v>
+        <v>0.0140845070422535</v>
       </c>
       <c r="Q9">
-        <v>0.08385093167701874</v>
+        <v>0.00885093167701867</v>
       </c>
       <c r="R9">
-        <v>0.2185185185185187</v>
+        <v>0.01038647342995167</v>
       </c>
       <c r="S9">
-        <v>0.1032863849765259</v>
+        <v>0.02173913043478258</v>
       </c>
       <c r="T9">
-        <v>0.1677018633540375</v>
+        <v>0.01539292465568464</v>
       </c>
       <c r="U9" t="s">
         <v>31</v>
@@ -1078,13 +1084,13 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H10">
-        <v>0.4285714285714285</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="I10">
-        <v>0.6</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="J10">
-        <v>0.5</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="K10">
         <v>0.1924119241192412</v>
@@ -1099,22 +1105,22 @@
         <v>0.5838509316770187</v>
       </c>
       <c r="O10">
-        <v>0.09365079365079371</v>
+        <v>0.00536828963795255</v>
       </c>
       <c r="P10">
-        <v>0.06197183098591552</v>
+        <v>0.0140845070422535</v>
       </c>
       <c r="Q10">
-        <v>0.08385093167701874</v>
+        <v>0.00885093167701867</v>
       </c>
       <c r="R10">
-        <v>0.2185185185185187</v>
+        <v>0.01038647342995167</v>
       </c>
       <c r="S10">
-        <v>0.1032863849765259</v>
+        <v>0.02173913043478258</v>
       </c>
       <c r="T10">
-        <v>0.1677018633540375</v>
+        <v>0.01539292465568464</v>
       </c>
       <c r="U10" t="s">
         <v>31</v>
@@ -1143,13 +1149,13 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H11">
-        <v>0.4285714285714285</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="I11">
-        <v>0.6</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="K11">
         <v>0.1924119241192412</v>
@@ -1164,22 +1170,22 @@
         <v>0.5838509316770187</v>
       </c>
       <c r="O11">
-        <v>0.09365079365079371</v>
+        <v>0.00536828963795255</v>
       </c>
       <c r="P11">
-        <v>0.06197183098591552</v>
+        <v>0.0140845070422535</v>
       </c>
       <c r="Q11">
-        <v>0.08385093167701874</v>
+        <v>0.00885093167701867</v>
       </c>
       <c r="R11">
-        <v>0.2185185185185187</v>
+        <v>0.01038647342995167</v>
       </c>
       <c r="S11">
-        <v>0.1032863849765259</v>
+        <v>0.02173913043478258</v>
       </c>
       <c r="T11">
-        <v>0.1677018633540375</v>
+        <v>0.01539292465568464</v>
       </c>
       <c r="U11" t="s">
         <v>31</v>
@@ -1205,13 +1211,13 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="H12">
-        <v>0.2083333333333333</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="J12">
-        <v>0.3448275862068966</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="K12">
         <v>0.1924119241192412</v>
@@ -1226,22 +1232,25 @@
         <v>0.3302325581395349</v>
       </c>
       <c r="O12">
-        <v>-0.01056174558960074</v>
+        <v>0.002240861486749401</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.01408450704225361</v>
       </c>
       <c r="Q12">
-        <v>-0.01459502806736168</v>
+        <v>0.003892231799208612</v>
       </c>
       <c r="R12">
-        <v>-0.05069637883008355</v>
+        <v>0.01146040588937551</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.01428571428571438</v>
       </c>
       <c r="T12">
-        <v>-0.04232558139534887</v>
+        <v>0.01192691029900353</v>
+      </c>
+      <c r="U12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1267,13 +1276,13 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="H13">
-        <v>0.2083333333333333</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="J13">
-        <v>0.3448275862068966</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="K13">
         <v>0.1924119241192412</v>
@@ -1288,22 +1297,25 @@
         <v>0.3302325581395349</v>
       </c>
       <c r="O13">
-        <v>-0.01056174558960074</v>
+        <v>0.002240861486749401</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.01408450704225361</v>
       </c>
       <c r="Q13">
-        <v>-0.01459502806736168</v>
+        <v>0.003892231799208612</v>
       </c>
       <c r="R13">
-        <v>-0.05069637883008355</v>
+        <v>0.01146040588937551</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.01428571428571438</v>
       </c>
       <c r="T13">
-        <v>-0.04232558139534887</v>
+        <v>0.01192691029900353</v>
+      </c>
+      <c r="U13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1329,13 +1341,13 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="H14">
-        <v>0.2083333333333333</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="J14">
-        <v>0.3448275862068966</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="K14">
         <v>0.1924119241192412</v>
@@ -1350,22 +1362,25 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="O14">
-        <v>-0.01280260707635011</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="P14">
-        <v>-0.0140845070422535</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="Q14">
-        <v>-0.01848725986657024</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R14">
-        <v>-0.06145251396648055</v>
+        <v>1.419499438627879E-16</v>
       </c>
       <c r="S14">
-        <v>-0.0140845070422535</v>
+        <v>1.126083353548373E-16</v>
       </c>
       <c r="T14">
-        <v>-0.05361305361305368</v>
+        <v>1.701020277014972E-16</v>
+      </c>
+      <c r="U14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1391,13 +1406,13 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="H15">
-        <v>0.2083333333333333</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="J15">
-        <v>0.3448275862068966</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="K15">
         <v>0.1924119241192412</v>
@@ -1412,22 +1427,25 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="O15">
-        <v>-0.01280260707635011</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="P15">
-        <v>-0.0140845070422535</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="Q15">
-        <v>-0.01848725986657024</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R15">
-        <v>-0.06145251396648055</v>
+        <v>1.419499438627879E-16</v>
       </c>
       <c r="S15">
-        <v>-0.0140845070422535</v>
+        <v>1.126083353548373E-16</v>
       </c>
       <c r="T15">
-        <v>-0.05361305361305368</v>
+        <v>1.701020277014972E-16</v>
+      </c>
+      <c r="U15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1453,13 +1471,13 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="H16">
-        <v>0.2083333333333333</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="J16">
-        <v>0.3448275862068966</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="K16">
         <v>0.1924119241192412</v>
@@ -1474,22 +1492,25 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="O16">
-        <v>-0.01280260707635011</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="P16">
-        <v>-0.0140845070422535</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="Q16">
-        <v>-0.01848725986657024</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R16">
-        <v>-0.06145251396648055</v>
+        <v>1.419499438627879E-16</v>
       </c>
       <c r="S16">
-        <v>-0.0140845070422535</v>
+        <v>1.126083353548373E-16</v>
       </c>
       <c r="T16">
-        <v>-0.05361305361305368</v>
+        <v>1.701020277014972E-16</v>
+      </c>
+      <c r="U16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1512,13 +1533,13 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="H17">
-        <v>0.2083333333333333</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="J17">
-        <v>0.3448275862068966</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="K17">
         <v>0.1924119241192412</v>
@@ -1533,22 +1554,25 @@
         <v>0.3294663573085847</v>
       </c>
       <c r="O17">
-        <v>-0.01111111111111113</v>
+        <v>0.001691495965239015</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.01408450704225361</v>
       </c>
       <c r="Q17">
-        <v>-0.01536122889831187</v>
+        <v>0.00312603096825842</v>
       </c>
       <c r="R17">
-        <v>-0.05333333333333341</v>
+        <v>0.00865079365079382</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.01428571428571438</v>
       </c>
       <c r="T17">
-        <v>-0.04454756380510443</v>
+        <v>0.009579052038449016</v>
+      </c>
+      <c r="U17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1574,13 +1598,13 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="H18">
-        <v>0.2083333333333333</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="J18">
-        <v>0.3448275862068966</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="K18">
         <v>0.1924119241192412</v>
@@ -1595,22 +1619,25 @@
         <v>0.3294663573085847</v>
       </c>
       <c r="O18">
-        <v>-0.01111111111111113</v>
+        <v>0.001691495965239015</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.01408450704225361</v>
       </c>
       <c r="Q18">
-        <v>-0.01536122889831187</v>
+        <v>0.00312603096825842</v>
       </c>
       <c r="R18">
-        <v>-0.05333333333333341</v>
+        <v>0.00865079365079382</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.01428571428571438</v>
       </c>
       <c r="T18">
-        <v>-0.04454756380510443</v>
+        <v>0.009579052038449016</v>
+      </c>
+      <c r="U18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1636,13 +1663,13 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="H19">
-        <v>0.2083333333333333</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="J19">
-        <v>0.3448275862068966</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="K19">
         <v>0.1924119241192412</v>
@@ -1657,22 +1684,25 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="O19">
-        <v>-0.01280260707635011</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="P19">
-        <v>-0.0140845070422535</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="Q19">
-        <v>-0.01848725986657024</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R19">
-        <v>-0.06145251396648055</v>
+        <v>1.419499438627879E-16</v>
       </c>
       <c r="S19">
-        <v>-0.0140845070422535</v>
+        <v>1.126083353548373E-16</v>
       </c>
       <c r="T19">
-        <v>-0.05361305361305368</v>
+        <v>1.701020277014972E-16</v>
+      </c>
+      <c r="U19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1698,13 +1728,13 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="H20">
-        <v>0.2083333333333333</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="J20">
-        <v>0.3448275862068966</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="K20">
         <v>0.1924119241192412</v>
@@ -1719,22 +1749,25 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="O20">
-        <v>-0.01280260707635011</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="P20">
-        <v>-0.0140845070422535</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="Q20">
-        <v>-0.01848725986657024</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R20">
-        <v>-0.06145251396648055</v>
+        <v>1.419499438627879E-16</v>
       </c>
       <c r="S20">
-        <v>-0.0140845070422535</v>
+        <v>1.126083353548373E-16</v>
       </c>
       <c r="T20">
-        <v>-0.05361305361305368</v>
+        <v>1.701020277014972E-16</v>
+      </c>
+      <c r="U20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1760,13 +1793,13 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="H21">
-        <v>0.2083333333333333</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="J21">
-        <v>0.3448275862068966</v>
+        <v>0.3263403263403263</v>
       </c>
       <c r="K21">
         <v>0.1924119241192412</v>
@@ -1781,22 +1814,25 @@
         <v>0.3263403263403263</v>
       </c>
       <c r="O21">
-        <v>-0.01280260707635011</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="P21">
-        <v>-0.0140845070422535</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="Q21">
-        <v>-0.01848725986657024</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R21">
-        <v>-0.06145251396648055</v>
+        <v>1.419499438627879E-16</v>
       </c>
       <c r="S21">
-        <v>-0.0140845070422535</v>
+        <v>1.126083353548373E-16</v>
       </c>
       <c r="T21">
-        <v>-0.05361305361305368</v>
+        <v>1.701020277014972E-16</v>
+      </c>
+      <c r="U21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1819,13 +1855,13 @@
         <v>0.2823529411764706</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I22">
-        <v>0.2666666666666667</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="J22">
-        <v>0.4210526315789474</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="K22">
         <v>0.1924119241192412</v>
@@ -1840,22 +1876,25 @@
         <v>0.2823529411764706</v>
       </c>
       <c r="O22">
-        <v>-0.1428571428571429</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>-0.09765258215962441</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="Q22">
-        <v>-0.1386996904024768</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>-0.1428571428571429</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>-0.3661971830985916</v>
+        <v>3.284409781182756E-16</v>
       </c>
       <c r="T22">
-        <v>-0.3294117647058824</v>
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1881,13 +1920,13 @@
         <v>0.2823529411764706</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I23">
-        <v>0.2666666666666667</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="J23">
-        <v>0.4210526315789474</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="K23">
         <v>0.1924119241192412</v>
@@ -1902,22 +1941,25 @@
         <v>0.2823529411764706</v>
       </c>
       <c r="O23">
-        <v>-0.1428571428571429</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>-0.09765258215962441</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="Q23">
-        <v>-0.1386996904024768</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>-0.1428571428571429</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>-0.3661971830985916</v>
+        <v>3.284409781182756E-16</v>
       </c>
       <c r="T23">
-        <v>-0.3294117647058824</v>
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1943,13 +1985,13 @@
         <v>0.2823529411764706</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I24">
-        <v>0.2666666666666667</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="J24">
-        <v>0.4210526315789474</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="K24">
         <v>0.1924119241192412</v>
@@ -1964,22 +2006,25 @@
         <v>0.3409090909090909</v>
       </c>
       <c r="O24">
-        <v>-0.1176470588235294</v>
+        <v>0.02521008403361347</v>
       </c>
       <c r="P24">
-        <v>-0.05539906103286385</v>
+        <v>0.04225352112676062</v>
       </c>
       <c r="Q24">
-        <v>-0.08014354066985646</v>
+        <v>0.05855614973262036</v>
       </c>
       <c r="R24">
-        <v>-0.1176470588235294</v>
+        <v>0.02941176470588238</v>
       </c>
       <c r="S24">
-        <v>-0.2077464788732394</v>
+        <v>0.2500000000000004</v>
       </c>
       <c r="T24">
-        <v>-0.1903409090909091</v>
+        <v>0.2073863636363638</v>
+      </c>
+      <c r="U24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2005,13 +2050,13 @@
         <v>0.2823529411764706</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I25">
-        <v>0.2666666666666667</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="J25">
-        <v>0.4210526315789474</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="K25">
         <v>0.1924119241192412</v>
@@ -2026,22 +2071,25 @@
         <v>0.3409090909090909</v>
       </c>
       <c r="O25">
-        <v>-0.1176470588235294</v>
+        <v>0.02521008403361347</v>
       </c>
       <c r="P25">
-        <v>-0.05539906103286385</v>
+        <v>0.04225352112676062</v>
       </c>
       <c r="Q25">
-        <v>-0.08014354066985646</v>
+        <v>0.05855614973262036</v>
       </c>
       <c r="R25">
-        <v>-0.1176470588235294</v>
+        <v>0.02941176470588238</v>
       </c>
       <c r="S25">
-        <v>-0.2077464788732394</v>
+        <v>0.2500000000000004</v>
       </c>
       <c r="T25">
-        <v>-0.1903409090909091</v>
+        <v>0.2073863636363638</v>
+      </c>
+      <c r="U25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2067,13 +2115,13 @@
         <v>0.2823529411764706</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I26">
-        <v>0.2666666666666667</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="J26">
-        <v>0.4210526315789474</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="K26">
         <v>0.1924119241192412</v>
@@ -2088,22 +2136,25 @@
         <v>0.3409090909090909</v>
       </c>
       <c r="O26">
-        <v>-0.1176470588235294</v>
+        <v>0.02521008403361347</v>
       </c>
       <c r="P26">
-        <v>-0.05539906103286385</v>
+        <v>0.04225352112676062</v>
       </c>
       <c r="Q26">
-        <v>-0.08014354066985646</v>
+        <v>0.05855614973262036</v>
       </c>
       <c r="R26">
-        <v>-0.1176470588235294</v>
+        <v>0.02941176470588238</v>
       </c>
       <c r="S26">
-        <v>-0.2077464788732394</v>
+        <v>0.2500000000000004</v>
       </c>
       <c r="T26">
-        <v>-0.1903409090909091</v>
+        <v>0.2073863636363638</v>
+      </c>
+      <c r="U26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2126,13 +2177,13 @@
         <v>0.2823529411764706</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I27">
-        <v>0.2666666666666667</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="J27">
-        <v>0.4210526315789474</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="K27">
         <v>0.1924119241192412</v>
@@ -2147,22 +2198,25 @@
         <v>0.2823529411764706</v>
       </c>
       <c r="O27">
-        <v>-0.1428571428571429</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>-0.09765258215962441</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="Q27">
-        <v>-0.1386996904024768</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>-0.1428571428571429</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>-0.3661971830985916</v>
+        <v>3.284409781182756E-16</v>
       </c>
       <c r="T27">
-        <v>-0.3294117647058824</v>
+        <v>0</v>
+      </c>
+      <c r="U27" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2188,13 +2242,13 @@
         <v>0.2823529411764706</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I28">
-        <v>0.2666666666666667</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="J28">
-        <v>0.4210526315789474</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="K28">
         <v>0.1924119241192412</v>
@@ -2209,22 +2263,25 @@
         <v>0.2823529411764706</v>
       </c>
       <c r="O28">
-        <v>-0.1428571428571429</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>-0.09765258215962441</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="Q28">
-        <v>-0.1386996904024768</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>-0.1428571428571429</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>-0.3661971830985916</v>
+        <v>3.284409781182756E-16</v>
       </c>
       <c r="T28">
-        <v>-0.3294117647058824</v>
+        <v>0</v>
+      </c>
+      <c r="U28" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2250,13 +2307,13 @@
         <v>0.2823529411764706</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I29">
-        <v>0.2666666666666667</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="J29">
-        <v>0.4210526315789474</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="K29">
         <v>0.1924119241192412</v>
@@ -2271,22 +2328,25 @@
         <v>0.3595505617977529</v>
       </c>
       <c r="O29">
-        <v>-0.1111111111111112</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P29">
-        <v>-0.04131455399061032</v>
+        <v>0.05633802816901415</v>
       </c>
       <c r="Q29">
-        <v>-0.06150206978119455</v>
+        <v>0.07719762062128227</v>
       </c>
       <c r="R29">
-        <v>-0.1111111111111112</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="S29">
-        <v>-0.1549295774647887</v>
+        <v>0.3333333333333338</v>
       </c>
       <c r="T29">
-        <v>-0.146067415730337</v>
+        <v>0.2734082397003747</v>
+      </c>
+      <c r="U29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2312,13 +2372,13 @@
         <v>0.2823529411764706</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I30">
-        <v>0.2666666666666667</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="J30">
-        <v>0.4210526315789474</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="K30">
         <v>0.1924119241192412</v>
@@ -2333,22 +2393,25 @@
         <v>0.3595505617977529</v>
       </c>
       <c r="O30">
-        <v>-0.1111111111111112</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P30">
-        <v>-0.04131455399061032</v>
+        <v>0.05633802816901415</v>
       </c>
       <c r="Q30">
-        <v>-0.06150206978119455</v>
+        <v>0.07719762062128227</v>
       </c>
       <c r="R30">
-        <v>-0.1111111111111112</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="S30">
-        <v>-0.1549295774647887</v>
+        <v>0.3333333333333338</v>
       </c>
       <c r="T30">
-        <v>-0.146067415730337</v>
+        <v>0.2734082397003747</v>
+      </c>
+      <c r="U30" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2374,13 +2437,13 @@
         <v>0.2823529411764706</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I31">
-        <v>0.2666666666666667</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="J31">
-        <v>0.4210526315789474</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="K31">
         <v>0.1924119241192412</v>
@@ -2395,22 +2458,25 @@
         <v>0.3595505617977529</v>
       </c>
       <c r="O31">
-        <v>-0.1111111111111112</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P31">
-        <v>-0.04131455399061032</v>
+        <v>0.05633802816901415</v>
       </c>
       <c r="Q31">
-        <v>-0.06150206978119455</v>
+        <v>0.07719762062128227</v>
       </c>
       <c r="R31">
-        <v>-0.1111111111111112</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="S31">
-        <v>-0.1549295774647887</v>
+        <v>0.3333333333333338</v>
       </c>
       <c r="T31">
-        <v>-0.146067415730337</v>
+        <v>0.2734082397003747</v>
+      </c>
+      <c r="U31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2433,13 +2499,13 @@
         <v>0.1282051282051282</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I32">
-        <v>0.2</v>
+        <v>0.0704225352112676</v>
       </c>
       <c r="J32">
-        <v>0.3333333333333334</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K32">
         <v>0.1924119241192412</v>
@@ -2454,25 +2520,25 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="O32">
-        <v>-0.2647058823529411</v>
+        <v>0.02100840336134457</v>
       </c>
       <c r="P32">
-        <v>0.152112676056338</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="Q32">
-        <v>0.1428571428571428</v>
+        <v>0.347985347985348</v>
       </c>
       <c r="R32">
-        <v>-0.2647058823529411</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="S32">
-        <v>0.7605633802816899</v>
+        <v>4</v>
       </c>
       <c r="T32">
-        <v>0.4285714285714283</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="U32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2498,13 +2564,13 @@
         <v>0.1282051282051282</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I33">
-        <v>0.2</v>
+        <v>0.0704225352112676</v>
       </c>
       <c r="J33">
-        <v>0.3333333333333334</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K33">
         <v>0.1924119241192412</v>
@@ -2519,25 +2585,25 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="O33">
-        <v>-0.2647058823529411</v>
+        <v>0.02100840336134457</v>
       </c>
       <c r="P33">
-        <v>0.152112676056338</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="Q33">
-        <v>0.1428571428571428</v>
+        <v>0.347985347985348</v>
       </c>
       <c r="R33">
-        <v>-0.2647058823529411</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="S33">
-        <v>0.7605633802816899</v>
+        <v>4</v>
       </c>
       <c r="T33">
-        <v>0.4285714285714283</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="U33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2563,13 +2629,13 @@
         <v>0.1282051282051282</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I34">
-        <v>0.2</v>
+        <v>0.0704225352112676</v>
       </c>
       <c r="J34">
-        <v>0.3333333333333334</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K34">
         <v>0.1924119241192412</v>
@@ -2584,25 +2650,25 @@
         <v>0.4123711340206186</v>
       </c>
       <c r="O34">
-        <v>-0.2307692307692307</v>
+        <v>0.05494505494505497</v>
       </c>
       <c r="P34">
-        <v>0.08169014084507042</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="Q34">
-        <v>0.07903780068728522</v>
+        <v>0.2841660058154904</v>
       </c>
       <c r="R34">
-        <v>-0.2307692307692307</v>
+        <v>0.07692307692307696</v>
       </c>
       <c r="S34">
-        <v>0.4084507042253521</v>
+        <v>3.000000000000001</v>
       </c>
       <c r="T34">
-        <v>0.2371134020618556</v>
+        <v>2.216494845360825</v>
       </c>
       <c r="U34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2628,13 +2694,13 @@
         <v>0.1282051282051282</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I35">
-        <v>0.2</v>
+        <v>0.0704225352112676</v>
       </c>
       <c r="J35">
-        <v>0.3333333333333334</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K35">
         <v>0.1924119241192412</v>
@@ -2649,25 +2715,25 @@
         <v>0.4123711340206186</v>
       </c>
       <c r="O35">
-        <v>-0.2307692307692307</v>
+        <v>0.05494505494505497</v>
       </c>
       <c r="P35">
-        <v>0.08169014084507042</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="Q35">
-        <v>0.07903780068728522</v>
+        <v>0.2841660058154904</v>
       </c>
       <c r="R35">
-        <v>-0.2307692307692307</v>
+        <v>0.07692307692307696</v>
       </c>
       <c r="S35">
-        <v>0.4084507042253521</v>
+        <v>3.000000000000001</v>
       </c>
       <c r="T35">
-        <v>0.2371134020618556</v>
+        <v>2.216494845360825</v>
       </c>
       <c r="U35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2693,13 +2759,13 @@
         <v>0.1282051282051282</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I36">
-        <v>0.2</v>
+        <v>0.0704225352112676</v>
       </c>
       <c r="J36">
-        <v>0.3333333333333334</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K36">
         <v>0.1924119241192412</v>
@@ -2714,25 +2780,25 @@
         <v>0.4123711340206186</v>
       </c>
       <c r="O36">
-        <v>-0.2307692307692307</v>
+        <v>0.05494505494505497</v>
       </c>
       <c r="P36">
-        <v>0.08169014084507042</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="Q36">
-        <v>0.07903780068728522</v>
+        <v>0.2841660058154904</v>
       </c>
       <c r="R36">
-        <v>-0.2307692307692307</v>
+        <v>0.07692307692307696</v>
       </c>
       <c r="S36">
-        <v>0.4084507042253521</v>
+        <v>3.000000000000001</v>
       </c>
       <c r="T36">
-        <v>0.2371134020618556</v>
+        <v>2.216494845360825</v>
       </c>
       <c r="U36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2755,13 +2821,13 @@
         <v>0.1282051282051282</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I37">
-        <v>0.2</v>
+        <v>0.0704225352112676</v>
       </c>
       <c r="J37">
-        <v>0.3333333333333334</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K37">
         <v>0.1924119241192412</v>
@@ -2776,25 +2842,25 @@
         <v>0.4123711340206186</v>
       </c>
       <c r="O37">
-        <v>-0.2307692307692307</v>
+        <v>0.05494505494505497</v>
       </c>
       <c r="P37">
-        <v>0.08169014084507042</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="Q37">
-        <v>0.07903780068728522</v>
+        <v>0.2841660058154904</v>
       </c>
       <c r="R37">
-        <v>-0.2307692307692307</v>
+        <v>0.07692307692307696</v>
       </c>
       <c r="S37">
-        <v>0.4084507042253521</v>
+        <v>3.000000000000001</v>
       </c>
       <c r="T37">
-        <v>0.2371134020618556</v>
+        <v>2.216494845360825</v>
       </c>
       <c r="U37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2820,13 +2886,13 @@
         <v>0.1282051282051282</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I38">
-        <v>0.2</v>
+        <v>0.0704225352112676</v>
       </c>
       <c r="J38">
-        <v>0.3333333333333334</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K38">
         <v>0.1924119241192412</v>
@@ -2841,25 +2907,25 @@
         <v>0.1975308641975309</v>
       </c>
       <c r="O38">
-        <v>-0.2</v>
+        <v>0.08571428571428574</v>
       </c>
       <c r="P38">
-        <v>-0.08732394366197184</v>
+        <v>0.04225352112676058</v>
       </c>
       <c r="Q38">
-        <v>-0.1358024691358025</v>
+        <v>0.06932573599240269</v>
       </c>
       <c r="R38">
-        <v>-0.2</v>
+        <v>0.12</v>
       </c>
       <c r="S38">
-        <v>-0.4366197183098592</v>
+        <v>0.6000000000000003</v>
       </c>
       <c r="T38">
-        <v>-0.4074074074074074</v>
+        <v>0.540740740740741</v>
       </c>
       <c r="U38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2885,13 +2951,13 @@
         <v>0.1282051282051282</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I39">
-        <v>0.2</v>
+        <v>0.0704225352112676</v>
       </c>
       <c r="J39">
-        <v>0.3333333333333334</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K39">
         <v>0.1924119241192412</v>
@@ -2906,25 +2972,25 @@
         <v>0.4123711340206186</v>
       </c>
       <c r="O39">
-        <v>-0.2307692307692307</v>
+        <v>0.05494505494505497</v>
       </c>
       <c r="P39">
-        <v>0.08169014084507042</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="Q39">
-        <v>0.07903780068728522</v>
+        <v>0.2841660058154904</v>
       </c>
       <c r="R39">
-        <v>-0.2307692307692307</v>
+        <v>0.07692307692307696</v>
       </c>
       <c r="S39">
-        <v>0.4084507042253521</v>
+        <v>3.000000000000001</v>
       </c>
       <c r="T39">
-        <v>0.2371134020618556</v>
+        <v>2.216494845360825</v>
       </c>
       <c r="U39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2950,13 +3016,13 @@
         <v>0.1282051282051282</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I40">
-        <v>0.2</v>
+        <v>0.0704225352112676</v>
       </c>
       <c r="J40">
-        <v>0.3333333333333334</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K40">
         <v>0.1924119241192412</v>
@@ -2971,25 +3037,25 @@
         <v>0.4123711340206186</v>
       </c>
       <c r="O40">
-        <v>-0.2307692307692307</v>
+        <v>0.05494505494505497</v>
       </c>
       <c r="P40">
-        <v>0.08169014084507042</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="Q40">
-        <v>0.07903780068728522</v>
+        <v>0.2841660058154904</v>
       </c>
       <c r="R40">
-        <v>-0.2307692307692307</v>
+        <v>0.07692307692307696</v>
       </c>
       <c r="S40">
-        <v>0.4084507042253521</v>
+        <v>3.000000000000001</v>
       </c>
       <c r="T40">
-        <v>0.2371134020618556</v>
+        <v>2.216494845360825</v>
       </c>
       <c r="U40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3015,13 +3081,13 @@
         <v>0.1282051282051282</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I41">
-        <v>0.2</v>
+        <v>0.0704225352112676</v>
       </c>
       <c r="J41">
-        <v>0.3333333333333334</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K41">
         <v>0.1924119241192412</v>
@@ -3036,25 +3102,25 @@
         <v>0.4123711340206186</v>
       </c>
       <c r="O41">
-        <v>-0.2307692307692307</v>
+        <v>0.05494505494505497</v>
       </c>
       <c r="P41">
-        <v>0.08169014084507042</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="Q41">
-        <v>0.07903780068728522</v>
+        <v>0.2841660058154904</v>
       </c>
       <c r="R41">
-        <v>-0.2307692307692307</v>
+        <v>0.07692307692307696</v>
       </c>
       <c r="S41">
-        <v>0.4084507042253521</v>
+        <v>3.000000000000001</v>
       </c>
       <c r="T41">
-        <v>0.2371134020618556</v>
+        <v>2.216494845360825</v>
       </c>
       <c r="U41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
